--- a/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.980365435179972</v>
+        <v>1.917139111226172</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.790974719846702</v>
+        <v>-1.749152629231468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.802102686416871</v>
+        <v>-1.897830366367783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.977047435560977</v>
+        <v>1.905646660074168</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.916120834873901</v>
+        <v>1.742183302516489</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3209082494481398</v>
+        <v>0.2877675874065859</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.644136090445395</v>
+        <v>2.800689690333247</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7411966780498251</v>
+        <v>0.7312195202325236</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06217125455404791</v>
+        <v>0.0388645946018564</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.686463917088387</v>
+        <v>7.558521312652647</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.915654038010857</v>
+        <v>3.114469608038174</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.93276630410784</v>
+        <v>2.992603001484187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.524635662811763</v>
+        <v>7.198668476053889</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.094696283814289</v>
+        <v>7.004012261296371</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.420455563624183</v>
+        <v>4.290428145119741</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.577702513097922</v>
+        <v>6.587069515497553</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.390571836679523</v>
+        <v>4.345494303753807</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.310847558673992</v>
+        <v>3.085813346236904</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.5332880327144869</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3121179870296957</v>
+        <v>0.3121179870296958</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3134754469755036</v>
+        <v>0.2824899070065816</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2864310570023966</v>
+        <v>-0.2805389949656435</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2873343539092876</v>
+        <v>-0.2816014541052955</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3449296045420317</v>
+        <v>0.3597953314955258</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3575765639020781</v>
+        <v>0.3399363170060841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05107967235651571</v>
+        <v>0.03624458630297554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4934959134320192</v>
+        <v>0.4903840778233131</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1333443931643112</v>
+        <v>0.132095913044843</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.008384639822779408</v>
+        <v>2.877261468419803e-05</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.840603030363835</v>
+        <v>1.72785064387665</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7123732876839941</v>
+        <v>0.7105280684610655</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6976913308268161</v>
+        <v>0.6900583021013067</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.396959934608093</v>
+        <v>2.404933890031569</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.323132927365021</v>
+        <v>2.317029281278644</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.495935562192683</v>
+        <v>1.494565716695595</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.736350669093363</v>
+        <v>1.666967122102281</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.097533198926335</v>
+        <v>1.120187643890822</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8547463071870682</v>
+        <v>0.7590427893028562</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.6408245351442521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.1779736565149695</v>
+        <v>-0.1779736565149681</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.619501279502451</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.806600897245039</v>
+        <v>-2.698583241915751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.048648260511854</v>
+        <v>-1.855058855823601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.871024893272898</v>
+        <v>-2.998825155777836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6911433251382901</v>
+        <v>-0.7536562769457601</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1357382556948154</v>
+        <v>-0.1771217719898792</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3115235934453152</v>
+        <v>0.2846711214909991</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.07082806362532</v>
+        <v>-1.195444438960706</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1766959239282533</v>
+        <v>-0.5268677800523195</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4397914479402529</v>
+        <v>-0.4920820774029724</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.941589645192553</v>
+        <v>2.229362430825904</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.01741880307439</v>
+        <v>3.231036772805107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.338978306641149</v>
+        <v>2.343447805180729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.169792844683408</v>
+        <v>3.952093530060158</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.693121249093428</v>
+        <v>4.685968347046752</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.923494828278219</v>
+        <v>4.931004523422076</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.234888983688294</v>
+        <v>2.25937539683829</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.343217783796298</v>
+        <v>3.040211623388347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.099348434593528</v>
+        <v>3.061388852240629</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.08202380701577452</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02278014660064399</v>
+        <v>-0.02278014660064381</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2686216962511648</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3221799891638584</v>
+        <v>-0.2999965907798421</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2254207191183175</v>
+        <v>-0.212150407310975</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3281064341576261</v>
+        <v>-0.3282817131013944</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1145763130265739</v>
+        <v>-0.107591323829922</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.026432715826815</v>
+        <v>-0.03881549934144691</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04127330390830369</v>
+        <v>0.02284302354442112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1327730143953055</v>
+        <v>-0.1521633210055827</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02448649089479914</v>
+        <v>-0.06638360965823541</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05638351320411105</v>
+        <v>-0.06596334010127655</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2985515338169767</v>
+        <v>0.3464461688967521</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4476198044161056</v>
+        <v>0.4939437352709218</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3740291130822269</v>
+        <v>0.3506267047050623</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8819794403349913</v>
+        <v>0.8430633149952255</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.018482890133271</v>
+        <v>0.9103740277340275</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.074758095516582</v>
+        <v>1.011360039047569</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3780299568973819</v>
+        <v>0.3580859872394248</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.553666308238963</v>
+        <v>0.4929239165620646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5240355235190841</v>
+        <v>0.5247500531631818</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.4817477486258312</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.2382556227140703</v>
+        <v>-0.2382556227140717</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.605499818482364</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.64526072167795</v>
+        <v>0.7193398970966255</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.76064840872001</v>
+        <v>-2.931338738966135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.314690653127932</v>
+        <v>-3.415159779116795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.442459048363967</v>
+        <v>-1.404045772618862</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.425461690746226</v>
+        <v>-2.023967384514137</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.933436711897588</v>
+        <v>-2.713192706620864</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3744688244503663</v>
+        <v>0.3110396968721591</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.728513957279735</v>
+        <v>-1.690186167707975</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.550697507235546</v>
+        <v>-2.364592234854888</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.195850645181229</v>
+        <v>7.129715289526159</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.396980051391981</v>
+        <v>2.486542726290608</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.327091391695507</v>
+        <v>2.25290770781618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.073128419608472</v>
+        <v>3.855794764201288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.977390440239</v>
+        <v>2.964369301918029</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.281267785457643</v>
+        <v>2.328655600801981</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.8953852586615</v>
+        <v>4.64094768916951</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.141068593710935</v>
+        <v>2.116054314212572</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.27709472531197</v>
+        <v>1.280275595862585</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.07391069120786456</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.03655364827171069</v>
+        <v>-0.0365536482717109</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3855211997492716</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06382587406429117</v>
+        <v>0.04635033155123754</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3373726337462499</v>
+        <v>-0.3474352888814104</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3903868975656343</v>
+        <v>-0.4212896982002307</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1688805733894435</v>
+        <v>-0.1910476391786758</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3036105113499128</v>
+        <v>-0.2639618224984495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3663490536920336</v>
+        <v>-0.3434826745670452</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04263345282024714</v>
+        <v>0.03483258883595142</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2258707704295351</v>
+        <v>-0.2180737813586235</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3345438645389092</v>
+        <v>-0.29887398303052</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.253214054644847</v>
+        <v>1.25492105394417</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4336910332027049</v>
+        <v>0.4345728568146479</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4563321524703755</v>
+        <v>0.3688596181263363</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7760392285436407</v>
+        <v>0.711968374824597</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5688920510569538</v>
+        <v>0.5562320698984292</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4620723218338845</v>
+        <v>0.4983035929577216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8590950724339673</v>
+        <v>0.7864311415648918</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.386910046511738</v>
+        <v>0.368022828588675</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2299050820894218</v>
+        <v>0.2247999421822342</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.9633952405209645</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.506285573113191</v>
+        <v>0.5062855731131897</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.911819897544802</v>
@@ -1306,7 +1306,7 @@
         <v>1.330624013363044</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.804772746789767</v>
+        <v>0.8047727467897683</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3291879548586771</v>
+        <v>0.4614730960742498</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7146353879022185</v>
+        <v>-0.5690511898417596</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.609431067226429</v>
+        <v>-1.239601230948183</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.449731038628233</v>
+        <v>-1.513062649402053</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.456046647483682</v>
+        <v>-1.470443019650156</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.840017031001246</v>
+        <v>-1.774525311832432</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1575659325969311</v>
+        <v>0.2368444079712475</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4311365831511613</v>
+        <v>-0.3307724110328298</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8570009681398835</v>
+        <v>-0.9189333002852018</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.549295389477484</v>
+        <v>5.610499073644601</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.158828712629573</v>
+        <v>4.309494587553512</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.721965255902794</v>
+        <v>3.683264269404049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.363512049647057</v>
+        <v>3.535017040548764</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.511181076102363</v>
+        <v>3.401423293140606</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.818578375488429</v>
+        <v>2.921507925260145</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.741851933991383</v>
+        <v>3.718963740672346</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.052029886505016</v>
+        <v>3.052138204318776</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.352811339635672</v>
+        <v>2.41737178659345</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1161800632760563</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06105520086256331</v>
+        <v>0.06105520086256314</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2470916217623823</v>
@@ -1411,7 +1411,7 @@
         <v>0.1719754281457568</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1040122050250764</v>
+        <v>0.1040122050250766</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03666723399668632</v>
+        <v>0.05293679529524969</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09409595927189737</v>
+        <v>-0.07028920870972094</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2059293873965655</v>
+        <v>-0.161164848503167</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1489867947731097</v>
+        <v>-0.1582712765372434</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1575489512225695</v>
+        <v>-0.1586828470394938</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1887432948587771</v>
+        <v>-0.175951182778601</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01422065468757667</v>
+        <v>0.03007403277649348</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04898095280584685</v>
+        <v>-0.04744122838914422</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1001361745549984</v>
+        <v>-0.1100597262603594</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9286019774909624</v>
+        <v>0.9564919504253678</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6689143325044697</v>
+        <v>0.7143283011783751</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6116892804577455</v>
+        <v>0.6114254226306218</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4653104870343387</v>
+        <v>0.5018256936470258</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4936552310156226</v>
+        <v>0.4799778079237479</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4093846132737806</v>
+        <v>0.4185668105792728</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5395978890499707</v>
+        <v>0.5367652887063001</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4519379257003643</v>
+        <v>0.4407120231974568</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3475784455874702</v>
+        <v>0.3486991468608375</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.771540561929053</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.260856657432236</v>
+        <v>0.2608566574322374</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.896155674826111</v>
@@ -1511,7 +1511,7 @@
         <v>1.906373750710115</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.302501022658788</v>
+        <v>1.302501022658789</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.204119204061715</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.264349541809893</v>
+        <v>0.979508316194926</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4787582573773145</v>
+        <v>-0.484616130999616</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.009725980786783</v>
+        <v>-1.151855353855683</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6526390155642415</v>
+        <v>0.5747859540237737</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7363976310984368</v>
+        <v>0.6237039962803416</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2010279338916403</v>
+        <v>0.1485522722448692</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.32964237689627</v>
+        <v>1.256744415428307</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5097281999918979</v>
+        <v>0.5074305112791719</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.09129975332178143</v>
+        <v>-0.1729361977621331</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.961385602845661</v>
+        <v>3.816457751970481</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.078166576728856</v>
+        <v>2.253104940623885</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.50700007127263</v>
+        <v>1.582535406108927</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.129604830988906</v>
+        <v>3.184732350484193</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.176611537514954</v>
+        <v>3.218049466910009</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.535535265513726</v>
+        <v>2.53484884286621</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.228585926362679</v>
+        <v>3.158837057903999</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.391348365546043</v>
+        <v>2.24316373626231</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.667438066453792</v>
+        <v>1.661565773787374</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1114681305141387</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.03768720060995605</v>
+        <v>0.03768720060995625</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2951612605960689</v>
@@ -1616,7 +1616,7 @@
         <v>0.2967518368334685</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2027512028045339</v>
+        <v>0.2027512028045341</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3305019810728335</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1618044632505992</v>
+        <v>0.1336208254973631</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06560396315746597</v>
+        <v>-0.06161069656070318</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1378816073982841</v>
+        <v>-0.1515007449977602</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.09281629833289928</v>
+        <v>0.08067805455774095</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1046333339389819</v>
+        <v>0.08457570902382099</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02634203619926438</v>
+        <v>0.01885204434640861</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1869841795452493</v>
+        <v>0.1774046257536055</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.06992828072767586</v>
+        <v>0.07366959138622135</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01555918816255417</v>
+        <v>-0.02477635558589548</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.614268377525546</v>
+        <v>0.6002041471155322</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3302062177870949</v>
+        <v>0.3741382092655061</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2362861221325333</v>
+        <v>0.2484746786918719</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.525375256486696</v>
+        <v>0.5486663647530354</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5486894717255117</v>
+        <v>0.5526790400332797</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4375792762267283</v>
+        <v>0.4313229713576252</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5181530502782561</v>
+        <v>0.5031755987760221</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3730368638795375</v>
+        <v>0.3587027768437235</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2629414369996761</v>
+        <v>0.2671309328300703</v>
       </c>
     </row>
     <row r="34">
